--- a/biology/Médecine/Eau_de_Rabel/Eau_de_Rabel.xlsx
+++ b/biology/Médecine/Eau_de_Rabel/Eau_de_Rabel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'eau de Rabel est un mélange d'acide sulfurique alcoolisé ou dulcifié, huile ou esprit de vitriol dulcifié, gouttes acides toniques, mixture d’acide sulfurique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eau de Rabel est un mélange d'acide sulfurique alcoolisé ou dulcifié, huile ou esprit de vitriol dulcifié, gouttes acides toniques, mixture d’acide sulfurique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eau de Rabel a été mise au point par un charlatan alchimiste se disant médecin du nom de Rabel. Il est mêlé à l'affaire des poisons, il est arrêté en 1680 et emprisonné à Salses. Il est libéré sur ordre du roi en 1686 à condition de ne plus revenir en France. Il s'est alors réfugié à Avignon puis à Nice.
 </t>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acide sulfurique : 100
 Alcool à 95° : 300
@@ -574,7 +590,9 @@
           <t>Mode de préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mêler peu à peu, en versant l’acide sur l’alcool ; ajouter les pétales de coquelicot au mélange refroidi ; laisser macérer pendant quatre jours ; filtrer (Codex 1937).
 Tableau C : dangereux.
